--- a/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/衣着类居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/衣着类居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,350 +463,132 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>99.10114</v>
+      </c>
+      <c r="C2" t="n">
+        <v>102.8859</v>
+      </c>
       <c r="D2" t="n">
-        <v>98.3</v>
+        <v>102.95587</v>
       </c>
       <c r="E2" t="n">
-        <v>99.09999999999999</v>
+        <v>99.02176</v>
       </c>
       <c r="F2" t="n">
-        <v>99.8</v>
+        <v>98.19392000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.6422</v>
+        <v>102.40178753</v>
       </c>
       <c r="C3" t="n">
-        <v>100.287</v>
+        <v>107.33484868</v>
       </c>
       <c r="D3" t="n">
-        <v>98.84650000000001</v>
+        <v>109.18784732</v>
       </c>
       <c r="E3" t="n">
-        <v>98.1216</v>
+        <v>102.12294108</v>
       </c>
       <c r="F3" t="n">
-        <v>98.96720000000001</v>
+        <v>100.66475728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.3582</v>
+        <v>103.3311582</v>
       </c>
       <c r="C4" t="n">
-        <v>99.9049</v>
+        <v>107.07482556</v>
       </c>
       <c r="D4" t="n">
-        <v>98.9006</v>
+        <v>103.52391412</v>
       </c>
       <c r="E4" t="n">
-        <v>97.6383</v>
+        <v>103.12750801</v>
       </c>
       <c r="F4" t="n">
-        <v>98.0292</v>
+        <v>102.33135966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.6366</v>
+        <v>102.4</v>
       </c>
       <c r="C5" t="n">
-        <v>100.1277</v>
+        <v>106.81100252</v>
       </c>
       <c r="D5" t="n">
-        <v>99.1768</v>
+        <v>102.24159965</v>
       </c>
       <c r="E5" t="n">
-        <v>97.7756</v>
+        <v>102.3</v>
       </c>
       <c r="F5" t="n">
-        <v>97.7306</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.3476</v>
+        <v>102.6</v>
       </c>
       <c r="C6" t="n">
-        <v>100.6504</v>
+        <v>105.22234007</v>
       </c>
       <c r="D6" t="n">
-        <v>100.1662</v>
+        <v>102.28829448</v>
       </c>
       <c r="E6" t="n">
-        <v>98.47580000000001</v>
+        <v>102.4</v>
       </c>
       <c r="F6" t="n">
-        <v>98.348</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.1481</v>
+        <v>102.76726</v>
       </c>
       <c r="C7" t="n">
-        <v>101.0932</v>
+        <v>105.23271</v>
       </c>
       <c r="D7" t="n">
-        <v>100.0161</v>
+        <v>101.60247</v>
       </c>
       <c r="E7" t="n">
-        <v>98.3133</v>
+        <v>102.72746</v>
       </c>
       <c r="F7" t="n">
-        <v>98.2587</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>99.02929</v>
-      </c>
-      <c r="C8" t="n">
-        <v>101.5054</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100.49756</v>
-      </c>
-      <c r="E8" t="n">
-        <v>99.43146</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100.24812</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>99.44046</v>
-      </c>
-      <c r="C9" t="n">
-        <v>102.26789</v>
-      </c>
-      <c r="D9" t="n">
-        <v>101.62266</v>
-      </c>
-      <c r="E9" t="n">
-        <v>99.43089999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>99.01076999999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>98.32709</v>
-      </c>
-      <c r="C10" t="n">
-        <v>104.14547</v>
-      </c>
-      <c r="D10" t="n">
-        <v>102.37006</v>
-      </c>
-      <c r="E10" t="n">
-        <v>98.50116</v>
-      </c>
-      <c r="F10" t="n">
-        <v>98.22909</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>97.82210000000001</v>
-      </c>
-      <c r="C11" t="n">
-        <v>103.51727</v>
-      </c>
-      <c r="D11" t="n">
-        <v>100.91525</v>
-      </c>
-      <c r="E11" t="n">
-        <v>97.98759</v>
-      </c>
-      <c r="F11" t="n">
-        <v>97.80647</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>99.10114</v>
-      </c>
-      <c r="C12" t="n">
-        <v>102.8859</v>
-      </c>
-      <c r="D12" t="n">
-        <v>102.95587</v>
-      </c>
-      <c r="E12" t="n">
-        <v>99.02176</v>
-      </c>
-      <c r="F12" t="n">
-        <v>98.19392000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>102.40178753</v>
-      </c>
-      <c r="C13" t="n">
-        <v>107.33484868</v>
-      </c>
-      <c r="D13" t="n">
-        <v>109.18784732</v>
-      </c>
-      <c r="E13" t="n">
-        <v>102.12294108</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100.66475728</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>103.3311582</v>
-      </c>
-      <c r="C14" t="n">
-        <v>107.07482556</v>
-      </c>
-      <c r="D14" t="n">
-        <v>103.52391412</v>
-      </c>
-      <c r="E14" t="n">
-        <v>103.12750801</v>
-      </c>
-      <c r="F14" t="n">
-        <v>102.33135966</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>106.81100252</v>
-      </c>
-      <c r="D15" t="n">
-        <v>102.24159965</v>
-      </c>
-      <c r="E15" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>105.22234007</v>
-      </c>
-      <c r="D16" t="n">
-        <v>102.28829448</v>
-      </c>
-      <c r="E16" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>101.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>102.76726</v>
-      </c>
-      <c r="C17" t="n">
-        <v>105.23271</v>
-      </c>
-      <c r="D17" t="n">
-        <v>101.60247</v>
-      </c>
-      <c r="E17" t="n">
-        <v>102.72746</v>
-      </c>
-      <c r="F17" t="n">
         <v>102.54931</v>
       </c>
     </row>
